--- a/individual_results/avey/148.xlsx
+++ b/individual_results/avey/148.xlsx
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -589,7 +589,7 @@
         <v>0.25</v>
       </c>
       <c r="N3" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -633,7 +633,7 @@
         <v>0.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -677,7 +677,7 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="N5" t="n">
-        <v>0.75</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -723,7 +723,7 @@
         <v>0.7026687648649679</v>
       </c>
       <c r="N6" t="n">
-        <v>1.309959440658742</v>
+        <v>0.7026687648649679</v>
       </c>
     </row>
     <row r="7">
@@ -951,7 +951,7 @@
         <v>0.25</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
